--- a/ADMON_CHNT/Control_Gastos_SJTC.xlsx
+++ b/ADMON_CHNT/Control_Gastos_SJTC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/ADMON_CHNT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="783" documentId="13_ncr:1_{750F3CCD-E2E1-4B2A-9EA3-0FB8A1FF23C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68D3B97-8B37-4321-B25C-3CE2CD2F824F}"/>
+  <xr:revisionPtr revIDLastSave="784" documentId="13_ncr:1_{750F3CCD-E2E1-4B2A-9EA3-0FB8A1FF23C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFD00AAC-D8C8-4315-AD23-F0E3FF702CCC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId12"/>
-    <pivotCache cacheId="4" r:id="rId13"/>
-    <pivotCache cacheId="11" r:id="rId14"/>
-    <pivotCache cacheId="20" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="8" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="729">
   <si>
     <t>RESUMEN</t>
   </si>
@@ -2312,13 +2312,22 @@
     <t>Me quede con un saldo de $ 4,459 y que decidimos dejarlos en inversion, ya que darselos al padre o a Lucio serian para sus bolsillos.</t>
   </si>
   <si>
-    <t>BALANCE 17 ENERO 2025</t>
-  </si>
-  <si>
     <t>INTERESES</t>
   </si>
   <si>
     <t>USO</t>
+  </si>
+  <si>
+    <t>02_FEB</t>
+  </si>
+  <si>
+    <t>INTERESES GENERADOS.</t>
+  </si>
+  <si>
+    <t>PLAZO AZTECA 2%</t>
+  </si>
+  <si>
+    <t>BALANCE 17 FEBRERO 2025</t>
   </si>
 </sst>
 </file>
@@ -2518,6 +2527,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3496,13 +3506,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3510,15 +3529,6 @@
     </xf>
     <xf numFmtId="16" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3539,139 +3549,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{AF29308B-C0B4-4CEF-A1F2-E514C36E07A8}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="143">
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <font>
         <b/>
@@ -4672,30 +4550,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;[Red]\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -5793,8 +5647,8 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="RESUMEN-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="142"/>
-      <tableStyleElement type="secondRowStripe" dxfId="141"/>
+      <tableStyleElement type="firstRowStripe" dxfId="99"/>
+      <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6504,7 +6358,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vicente_Lap" refreshedDate="45677.447181481482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="285" xr:uid="{884B390B-41E5-4CC5-AF84-3189668BACBC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vicente_Lap" refreshedDate="45705.553081365739" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="285" xr:uid="{884B390B-41E5-4CC5-AF84-3189668BACBC}">
   <cacheSource type="worksheet">
     <worksheetSource name="DIAR_247"/>
   </cacheSource>
@@ -6513,11 +6367,12 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="285"/>
     </cacheField>
     <cacheField name="FEC_MOV" numFmtId="166">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-02T00:00:00" maxDate="2025-01-18T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-01-02T00:00:00" maxDate="2025-02-18T00:00:00"/>
     </cacheField>
     <cacheField name="MES" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="01_ENE"/>
+        <s v="02_FEB"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -6531,7 +6386,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="INGRESO" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4459"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="4459"/>
     </cacheField>
     <cacheField name="EGRESO" numFmtId="165">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -13247,18 +13102,18 @@
   </r>
   <r>
     <n v="3"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2025-02-17T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="INTERESES GENERADOS."/>
+    <n v="7.43"/>
+    <m/>
+    <s v="PLAZO AZTECA 2%"/>
   </r>
   <r>
     <n v="4"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13268,7 +13123,7 @@
   <r>
     <n v="5"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13278,7 +13133,7 @@
   <r>
     <n v="6"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13288,7 +13143,7 @@
   <r>
     <n v="7"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13298,7 +13153,7 @@
   <r>
     <n v="8"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13308,7 +13163,7 @@
   <r>
     <n v="9"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13318,7 +13173,7 @@
   <r>
     <n v="10"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13328,7 +13183,7 @@
   <r>
     <n v="11"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13338,7 +13193,7 @@
   <r>
     <n v="12"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13348,7 +13203,7 @@
   <r>
     <n v="13"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13358,7 +13213,7 @@
   <r>
     <n v="14"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13368,7 +13223,7 @@
   <r>
     <n v="15"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13378,7 +13233,7 @@
   <r>
     <n v="16"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13388,7 +13243,7 @@
   <r>
     <n v="17"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13398,7 +13253,7 @@
   <r>
     <n v="18"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13408,7 +13263,7 @@
   <r>
     <n v="19"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13418,7 +13273,7 @@
   <r>
     <n v="20"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13428,7 +13283,7 @@
   <r>
     <n v="21"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13438,7 +13293,7 @@
   <r>
     <n v="22"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13448,7 +13303,7 @@
   <r>
     <n v="23"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13458,7 +13313,7 @@
   <r>
     <n v="24"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13468,7 +13323,7 @@
   <r>
     <n v="25"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13478,7 +13333,7 @@
   <r>
     <n v="26"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13488,7 +13343,7 @@
   <r>
     <n v="27"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13498,7 +13353,7 @@
   <r>
     <n v="28"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13508,7 +13363,7 @@
   <r>
     <n v="29"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13518,7 +13373,7 @@
   <r>
     <n v="30"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13528,7 +13383,7 @@
   <r>
     <n v="31"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13538,7 +13393,7 @@
   <r>
     <n v="32"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13548,7 +13403,7 @@
   <r>
     <n v="33"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13558,7 +13413,7 @@
   <r>
     <n v="34"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13568,7 +13423,7 @@
   <r>
     <n v="35"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13578,7 +13433,7 @@
   <r>
     <n v="36"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13588,7 +13443,7 @@
   <r>
     <n v="37"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13598,7 +13453,7 @@
   <r>
     <n v="38"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13608,7 +13463,7 @@
   <r>
     <n v="39"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13618,7 +13473,7 @@
   <r>
     <n v="40"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13628,7 +13483,7 @@
   <r>
     <n v="41"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13638,7 +13493,7 @@
   <r>
     <n v="42"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13648,7 +13503,7 @@
   <r>
     <n v="43"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13658,7 +13513,7 @@
   <r>
     <n v="44"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13668,7 +13523,7 @@
   <r>
     <n v="45"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13678,7 +13533,7 @@
   <r>
     <n v="46"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13688,7 +13543,7 @@
   <r>
     <n v="47"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13698,7 +13553,7 @@
   <r>
     <n v="48"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13708,7 +13563,7 @@
   <r>
     <n v="49"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13718,7 +13573,7 @@
   <r>
     <n v="50"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13728,7 +13583,7 @@
   <r>
     <n v="51"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13738,7 +13593,7 @@
   <r>
     <n v="52"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13748,7 +13603,7 @@
   <r>
     <n v="53"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13758,7 +13613,7 @@
   <r>
     <n v="54"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13768,7 +13623,7 @@
   <r>
     <n v="55"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13778,7 +13633,7 @@
   <r>
     <n v="56"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13788,7 +13643,7 @@
   <r>
     <n v="57"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13798,7 +13653,7 @@
   <r>
     <n v="58"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13808,7 +13663,7 @@
   <r>
     <n v="59"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13818,7 +13673,7 @@
   <r>
     <n v="60"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13828,7 +13683,7 @@
   <r>
     <n v="61"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13838,7 +13693,7 @@
   <r>
     <n v="62"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13848,7 +13703,7 @@
   <r>
     <n v="63"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13858,7 +13713,7 @@
   <r>
     <n v="64"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13868,7 +13723,7 @@
   <r>
     <n v="65"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13878,7 +13733,7 @@
   <r>
     <n v="66"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13888,7 +13743,7 @@
   <r>
     <n v="67"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13898,7 +13753,7 @@
   <r>
     <n v="68"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13908,7 +13763,7 @@
   <r>
     <n v="69"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13918,7 +13773,7 @@
   <r>
     <n v="70"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13928,7 +13783,7 @@
   <r>
     <n v="71"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13938,7 +13793,7 @@
   <r>
     <n v="72"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13948,7 +13803,7 @@
   <r>
     <n v="73"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13958,7 +13813,7 @@
   <r>
     <n v="74"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13968,7 +13823,7 @@
   <r>
     <n v="75"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13978,7 +13833,7 @@
   <r>
     <n v="76"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13988,7 +13843,7 @@
   <r>
     <n v="77"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -13998,7 +13853,7 @@
   <r>
     <n v="78"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14008,7 +13863,7 @@
   <r>
     <n v="79"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14018,7 +13873,7 @@
   <r>
     <n v="80"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14028,7 +13883,7 @@
   <r>
     <n v="81"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14038,7 +13893,7 @@
   <r>
     <n v="82"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14048,7 +13903,7 @@
   <r>
     <n v="83"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14058,7 +13913,7 @@
   <r>
     <n v="84"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14068,7 +13923,7 @@
   <r>
     <n v="85"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14078,7 +13933,7 @@
   <r>
     <n v="86"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14088,7 +13943,7 @@
   <r>
     <n v="87"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14098,7 +13953,7 @@
   <r>
     <n v="88"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14108,7 +13963,7 @@
   <r>
     <n v="89"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14118,7 +13973,7 @@
   <r>
     <n v="90"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14128,7 +13983,7 @@
   <r>
     <n v="91"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14138,7 +13993,7 @@
   <r>
     <n v="92"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14148,7 +14003,7 @@
   <r>
     <n v="93"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14158,7 +14013,7 @@
   <r>
     <n v="94"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14168,7 +14023,7 @@
   <r>
     <n v="95"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14178,7 +14033,7 @@
   <r>
     <n v="96"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14188,7 +14043,7 @@
   <r>
     <n v="97"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14198,7 +14053,7 @@
   <r>
     <n v="98"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14208,7 +14063,7 @@
   <r>
     <n v="99"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14218,7 +14073,7 @@
   <r>
     <n v="100"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14228,7 +14083,7 @@
   <r>
     <n v="101"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14238,7 +14093,7 @@
   <r>
     <n v="102"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14248,7 +14103,7 @@
   <r>
     <n v="103"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14258,7 +14113,7 @@
   <r>
     <n v="104"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14268,7 +14123,7 @@
   <r>
     <n v="105"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14278,7 +14133,7 @@
   <r>
     <n v="106"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14288,7 +14143,7 @@
   <r>
     <n v="107"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14298,7 +14153,7 @@
   <r>
     <n v="108"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14308,7 +14163,7 @@
   <r>
     <n v="109"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14318,7 +14173,7 @@
   <r>
     <n v="110"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14328,7 +14183,7 @@
   <r>
     <n v="111"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14338,7 +14193,7 @@
   <r>
     <n v="112"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14348,7 +14203,7 @@
   <r>
     <n v="113"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14358,7 +14213,7 @@
   <r>
     <n v="114"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14368,7 +14223,7 @@
   <r>
     <n v="115"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14378,7 +14233,7 @@
   <r>
     <n v="116"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14388,7 +14243,7 @@
   <r>
     <n v="117"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14398,7 +14253,7 @@
   <r>
     <n v="118"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14408,7 +14263,7 @@
   <r>
     <n v="119"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14418,7 +14273,7 @@
   <r>
     <n v="120"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14428,7 +14283,7 @@
   <r>
     <n v="121"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14438,7 +14293,7 @@
   <r>
     <n v="122"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14448,7 +14303,7 @@
   <r>
     <n v="123"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14458,7 +14313,7 @@
   <r>
     <n v="124"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14468,7 +14323,7 @@
   <r>
     <n v="125"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14478,7 +14333,7 @@
   <r>
     <n v="126"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14488,7 +14343,7 @@
   <r>
     <n v="127"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14498,7 +14353,7 @@
   <r>
     <n v="128"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14508,7 +14363,7 @@
   <r>
     <n v="129"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14518,7 +14373,7 @@
   <r>
     <n v="130"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14528,7 +14383,7 @@
   <r>
     <n v="131"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14538,7 +14393,7 @@
   <r>
     <n v="132"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14548,7 +14403,7 @@
   <r>
     <n v="133"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14558,7 +14413,7 @@
   <r>
     <n v="134"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14568,7 +14423,7 @@
   <r>
     <n v="135"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14578,7 +14433,7 @@
   <r>
     <n v="136"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14588,7 +14443,7 @@
   <r>
     <n v="137"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14598,7 +14453,7 @@
   <r>
     <n v="138"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14608,7 +14463,7 @@
   <r>
     <n v="139"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14618,7 +14473,7 @@
   <r>
     <n v="140"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14628,7 +14483,7 @@
   <r>
     <n v="141"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14638,7 +14493,7 @@
   <r>
     <n v="142"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14648,7 +14503,7 @@
   <r>
     <n v="143"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14658,7 +14513,7 @@
   <r>
     <n v="144"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14668,7 +14523,7 @@
   <r>
     <n v="145"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14678,7 +14533,7 @@
   <r>
     <n v="146"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14688,7 +14543,7 @@
   <r>
     <n v="147"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14698,7 +14553,7 @@
   <r>
     <n v="148"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14708,7 +14563,7 @@
   <r>
     <n v="149"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14718,7 +14573,7 @@
   <r>
     <n v="150"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14728,7 +14583,7 @@
   <r>
     <n v="151"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14738,7 +14593,7 @@
   <r>
     <n v="152"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14748,7 +14603,7 @@
   <r>
     <n v="153"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14758,7 +14613,7 @@
   <r>
     <n v="154"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14768,7 +14623,7 @@
   <r>
     <n v="155"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14778,7 +14633,7 @@
   <r>
     <n v="156"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14788,7 +14643,7 @@
   <r>
     <n v="157"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14798,7 +14653,7 @@
   <r>
     <n v="158"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14808,7 +14663,7 @@
   <r>
     <n v="159"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14818,7 +14673,7 @@
   <r>
     <n v="160"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14828,7 +14683,7 @@
   <r>
     <n v="161"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14838,7 +14693,7 @@
   <r>
     <n v="162"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14848,7 +14703,7 @@
   <r>
     <n v="163"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14858,7 +14713,7 @@
   <r>
     <n v="164"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14868,7 +14723,7 @@
   <r>
     <n v="165"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14878,7 +14733,7 @@
   <r>
     <n v="166"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14888,7 +14743,7 @@
   <r>
     <n v="167"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14898,7 +14753,7 @@
   <r>
     <n v="168"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14908,7 +14763,7 @@
   <r>
     <n v="169"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14918,7 +14773,7 @@
   <r>
     <n v="170"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14928,7 +14783,7 @@
   <r>
     <n v="171"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14938,7 +14793,7 @@
   <r>
     <n v="172"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14948,7 +14803,7 @@
   <r>
     <n v="173"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14958,7 +14813,7 @@
   <r>
     <n v="174"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14968,7 +14823,7 @@
   <r>
     <n v="175"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14978,7 +14833,7 @@
   <r>
     <n v="176"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14988,7 +14843,7 @@
   <r>
     <n v="177"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -14998,7 +14853,7 @@
   <r>
     <n v="178"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15008,7 +14863,7 @@
   <r>
     <n v="179"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15018,7 +14873,7 @@
   <r>
     <n v="180"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15028,7 +14883,7 @@
   <r>
     <n v="181"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15038,7 +14893,7 @@
   <r>
     <n v="182"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15048,7 +14903,7 @@
   <r>
     <n v="183"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15058,7 +14913,7 @@
   <r>
     <n v="184"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15068,7 +14923,7 @@
   <r>
     <n v="185"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15078,7 +14933,7 @@
   <r>
     <n v="186"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15088,7 +14943,7 @@
   <r>
     <n v="187"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15098,7 +14953,7 @@
   <r>
     <n v="188"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15108,7 +14963,7 @@
   <r>
     <n v="189"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15118,7 +14973,7 @@
   <r>
     <n v="190"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15128,7 +14983,7 @@
   <r>
     <n v="191"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15138,7 +14993,7 @@
   <r>
     <n v="192"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15148,7 +15003,7 @@
   <r>
     <n v="193"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15158,7 +15013,7 @@
   <r>
     <n v="194"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15168,7 +15023,7 @@
   <r>
     <n v="195"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15178,7 +15033,7 @@
   <r>
     <n v="196"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15188,7 +15043,7 @@
   <r>
     <n v="197"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15198,7 +15053,7 @@
   <r>
     <n v="198"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15208,7 +15063,7 @@
   <r>
     <n v="199"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15218,7 +15073,7 @@
   <r>
     <n v="200"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15228,7 +15083,7 @@
   <r>
     <n v="201"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15238,7 +15093,7 @@
   <r>
     <n v="202"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15248,7 +15103,7 @@
   <r>
     <n v="203"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15258,7 +15113,7 @@
   <r>
     <n v="204"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15268,7 +15123,7 @@
   <r>
     <n v="205"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15278,7 +15133,7 @@
   <r>
     <n v="206"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15288,7 +15143,7 @@
   <r>
     <n v="207"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15298,7 +15153,7 @@
   <r>
     <n v="208"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15308,7 +15163,7 @@
   <r>
     <n v="209"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15318,7 +15173,7 @@
   <r>
     <n v="210"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15328,7 +15183,7 @@
   <r>
     <n v="211"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15338,7 +15193,7 @@
   <r>
     <n v="212"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15348,7 +15203,7 @@
   <r>
     <n v="213"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15358,7 +15213,7 @@
   <r>
     <n v="214"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15368,7 +15223,7 @@
   <r>
     <n v="215"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15378,7 +15233,7 @@
   <r>
     <n v="216"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15388,7 +15243,7 @@
   <r>
     <n v="217"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15398,7 +15253,7 @@
   <r>
     <n v="218"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15408,7 +15263,7 @@
   <r>
     <n v="219"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15418,7 +15273,7 @@
   <r>
     <n v="220"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15428,7 +15283,7 @@
   <r>
     <n v="221"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15438,7 +15293,7 @@
   <r>
     <n v="222"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15448,7 +15303,7 @@
   <r>
     <n v="223"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15458,7 +15313,7 @@
   <r>
     <n v="224"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15468,7 +15323,7 @@
   <r>
     <n v="225"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15478,7 +15333,7 @@
   <r>
     <n v="226"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15488,7 +15343,7 @@
   <r>
     <n v="227"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15498,7 +15353,7 @@
   <r>
     <n v="228"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15508,7 +15363,7 @@
   <r>
     <n v="229"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15518,7 +15373,7 @@
   <r>
     <n v="230"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15528,7 +15383,7 @@
   <r>
     <n v="231"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15538,7 +15393,7 @@
   <r>
     <n v="232"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15548,7 +15403,7 @@
   <r>
     <n v="233"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15558,7 +15413,7 @@
   <r>
     <n v="234"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15568,7 +15423,7 @@
   <r>
     <n v="235"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15578,7 +15433,7 @@
   <r>
     <n v="236"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15588,7 +15443,7 @@
   <r>
     <n v="237"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15598,7 +15453,7 @@
   <r>
     <n v="238"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15608,7 +15463,7 @@
   <r>
     <n v="239"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15618,7 +15473,7 @@
   <r>
     <n v="240"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15628,7 +15483,7 @@
   <r>
     <n v="241"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15638,7 +15493,7 @@
   <r>
     <n v="242"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15648,7 +15503,7 @@
   <r>
     <n v="243"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15658,7 +15513,7 @@
   <r>
     <n v="244"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15668,7 +15523,7 @@
   <r>
     <n v="245"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15678,7 +15533,7 @@
   <r>
     <n v="246"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15688,7 +15543,7 @@
   <r>
     <n v="247"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15698,7 +15553,7 @@
   <r>
     <n v="248"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15708,7 +15563,7 @@
   <r>
     <n v="249"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15718,7 +15573,7 @@
   <r>
     <n v="250"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15728,7 +15583,7 @@
   <r>
     <n v="251"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15738,7 +15593,7 @@
   <r>
     <n v="252"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15748,7 +15603,7 @@
   <r>
     <n v="253"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15758,7 +15613,7 @@
   <r>
     <n v="254"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15768,7 +15623,7 @@
   <r>
     <n v="255"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15778,7 +15633,7 @@
   <r>
     <n v="256"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15788,7 +15643,7 @@
   <r>
     <n v="257"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15798,7 +15653,7 @@
   <r>
     <n v="258"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15808,7 +15663,7 @@
   <r>
     <n v="259"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15818,7 +15673,7 @@
   <r>
     <n v="260"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15828,7 +15683,7 @@
   <r>
     <n v="261"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15838,7 +15693,7 @@
   <r>
     <n v="262"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15848,7 +15703,7 @@
   <r>
     <n v="263"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15858,7 +15713,7 @@
   <r>
     <n v="264"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15868,7 +15723,7 @@
   <r>
     <n v="265"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15878,7 +15733,7 @@
   <r>
     <n v="266"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15888,7 +15743,7 @@
   <r>
     <n v="267"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15898,7 +15753,7 @@
   <r>
     <n v="268"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15908,7 +15763,7 @@
   <r>
     <n v="269"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15918,7 +15773,7 @@
   <r>
     <n v="270"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15928,7 +15783,7 @@
   <r>
     <n v="271"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15938,7 +15793,7 @@
   <r>
     <n v="272"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15948,7 +15803,7 @@
   <r>
     <n v="273"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15958,7 +15813,7 @@
   <r>
     <n v="274"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15968,7 +15823,7 @@
   <r>
     <n v="275"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15978,7 +15833,7 @@
   <r>
     <n v="276"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15988,7 +15843,7 @@
   <r>
     <n v="277"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -15998,7 +15853,7 @@
   <r>
     <n v="278"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16008,7 +15863,7 @@
   <r>
     <n v="279"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16018,7 +15873,7 @@
   <r>
     <n v="280"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16028,7 +15883,7 @@
   <r>
     <n v="281"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16038,7 +15893,7 @@
   <r>
     <n v="282"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16048,7 +15903,7 @@
   <r>
     <n v="283"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16058,7 +15913,7 @@
   <r>
     <n v="284"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16068,7 +15923,7 @@
   <r>
     <n v="285"/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -16079,7 +15934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3C5680D-5ED4-48FF-9560-DA2606461E04}" name="TablaDinámica1" cacheId="4" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RUBRO">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3C5680D-5ED4-48FF-9560-DA2606461E04}" name="TablaDinámica1" cacheId="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RUBRO">
   <location ref="A6:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0"/>
@@ -16178,10 +16033,10 @@
     <dataField name="EGRESOS" fld="6" baseField="2" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="129">
+    <format dxfId="86">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="85">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16190,7 +16045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="84">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16199,7 +16054,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16209,7 +16064,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16219,10 +16074,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="81">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="80">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -16239,7 +16094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{346D2BB6-2777-4EB3-913B-113DDD359838}" name="TablaDinámica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="CONCEPTO">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{346D2BB6-2777-4EB3-913B-113DDD359838}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="CONCEPTO">
   <location ref="A8:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0"/>
@@ -16460,10 +16315,10 @@
     <dataField name="GASTO" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="122">
+    <format dxfId="79">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16473,10 +16328,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="77">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16486,10 +16341,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="75">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16499,10 +16354,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="73">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16519,15 +16374,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E58DA4A-663B-4426-B242-DC24F91486BB}" name="TablaDinámica1" cacheId="20" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RUBRO">
-  <location ref="A6:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E58DA4A-663B-4426-B242-DC24F91486BB}" name="TablaDinámica1" cacheId="8" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RUBRO">
+  <location ref="A6:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16546,9 +16402,12 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -16573,10 +16432,10 @@
     <dataField name="EGRESOS" fld="6" baseField="2" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="85">
+    <format dxfId="49">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="48">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16585,7 +16444,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="47">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16594,7 +16453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16604,7 +16463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16614,10 +16473,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="44">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="43">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -16634,7 +16493,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B63A0FE-E616-4752-AE3D-F9B72651BB0B}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="MES">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B63A0FE-E616-4752-AE3D-F9B72651BB0B}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="MES">
   <location ref="A6:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="3" showAll="0"/>
@@ -16727,10 +16586,10 @@
     <dataField name="EGRESOS" fld="6" baseField="2" baseItem="21" numFmtId="44"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="56">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16754,26 +16613,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2552EAA0-EF9A-4603-B14E-7BA1347E58BB}" name="Flujo_SJTC" displayName="Flujo_SJTC" ref="B6:I196" totalsRowShown="0" dataDxfId="139" headerRowBorderDxfId="140" tableBorderDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2552EAA0-EF9A-4603-B14E-7BA1347E58BB}" name="Flujo_SJTC" displayName="Flujo_SJTC" ref="B6:I196" totalsRowShown="0" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
   <autoFilter ref="B6:I196" xr:uid="{2552EAA0-EF9A-4603-B14E-7BA1347E58BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{666C62DD-ED22-41CE-8167-F6AFF0D2B28F}" name="0.00" dataDxfId="137">
+    <tableColumn id="1" xr3:uid="{666C62DD-ED22-41CE-8167-F6AFF0D2B28F}" name="0.00" dataDxfId="94">
       <calculatedColumnFormula>B6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D89880FC-5D7D-4FA2-9802-AF70F9F19EB3}" name="FEC_MOV" dataDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{88ACA7B3-E072-450B-841B-956F62D87A4B}" name="MES" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{06013185-F50E-4CCB-9743-59359A142DC0}" name="CATEGORIA" dataDxfId="134"/>
-    <tableColumn id="5" xr3:uid="{088944E1-E487-4A6F-8D25-381138BDC7D4}" name="CONCEPTO" dataDxfId="133"/>
-    <tableColumn id="6" xr3:uid="{F4182BBC-3D4B-408B-8D6E-9AC28ED5E534}" name="INGRESO" dataDxfId="132"/>
-    <tableColumn id="7" xr3:uid="{98E79022-B6BA-4727-A513-DD674B00B6A8}" name="EGRESO" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{E8EEA682-210F-455B-BC37-C5A74E17D5DC}" name="NOTAS" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{D89880FC-5D7D-4FA2-9802-AF70F9F19EB3}" name="FEC_MOV" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{88ACA7B3-E072-450B-841B-956F62D87A4B}" name="MES" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{06013185-F50E-4CCB-9743-59359A142DC0}" name="CATEGORIA" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{088944E1-E487-4A6F-8D25-381138BDC7D4}" name="CONCEPTO" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{F4182BBC-3D4B-408B-8D6E-9AC28ED5E534}" name="INGRESO" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{98E79022-B6BA-4727-A513-DD674B00B6A8}" name="EGRESO" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{E8EEA682-210F-455B-BC37-C5A74E17D5DC}" name="NOTAS" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86ABF440-3C0D-4CBD-8965-04C1E3DF7A90}" name="DIAR_24" displayName="DIAR_24" ref="B6:I291" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113" tableBorderDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86ABF440-3C0D-4CBD-8965-04C1E3DF7A90}" name="DIAR_24" displayName="DIAR_24" ref="B6:I291" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="B6:I291" xr:uid="{2552EAA0-EF9A-4603-B14E-7BA1347E58BB}">
     <filterColumn colId="3">
       <filters>
@@ -16787,23 +16646,23 @@
     <sortCondition ref="F7:F291"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{78146467-D112-42E5-9BC7-E980D06B4565}" name="0.00" dataDxfId="111">
+    <tableColumn id="1" xr3:uid="{78146467-D112-42E5-9BC7-E980D06B4565}" name="0.00" dataDxfId="68">
       <calculatedColumnFormula>B6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9558EA94-D895-43DF-802E-4C798231C01F}" name="FEC_MOV" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{A4411C1A-8F1B-408F-B362-1A0C490FB7B3}" name="MES" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{DEC667A6-A209-44C1-B5AF-7B6FFC069CA5}" name="CATEGORIA" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{9A022393-26CF-443E-B2CC-3C6306359C04}" name="CONCEPTO" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{447E0E4F-A9A2-4396-B807-71541E421FBC}" name="INGRESO" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{B6EAA218-4F08-4621-909C-A91673DC3723}" name="EGRESO" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{4D8AD61F-216C-4DB1-89F1-BC127C6F35E9}" name="NOTAS" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{9558EA94-D895-43DF-802E-4C798231C01F}" name="FEC_MOV" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{A4411C1A-8F1B-408F-B362-1A0C490FB7B3}" name="MES" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{DEC667A6-A209-44C1-B5AF-7B6FFC069CA5}" name="CATEGORIA" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{9A022393-26CF-443E-B2CC-3C6306359C04}" name="CONCEPTO" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{447E0E4F-A9A2-4396-B807-71541E421FBC}" name="INGRESO" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{B6EAA218-4F08-4621-909C-A91673DC3723}" name="EGRESO" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{4D8AD61F-216C-4DB1-89F1-BC127C6F35E9}" name="NOTAS" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02A96444-A6BB-4F80-A403-A34121976C61}" name="DIAR_247" displayName="DIAR_247" ref="B6:I291" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02A96444-A6BB-4F80-A403-A34121976C61}" name="DIAR_247" displayName="DIAR_247" ref="B6:I291" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="B6:I291" xr:uid="{2552EAA0-EF9A-4603-B14E-7BA1347E58BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I291">
     <sortCondition ref="C7:C291"/>
@@ -16811,42 +16670,42 @@
     <sortCondition ref="F7:F291"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0C8F66E8-9B90-4E7F-A639-5781B266CDBF}" name="0.00" dataDxfId="100">
+    <tableColumn id="1" xr3:uid="{0C8F66E8-9B90-4E7F-A639-5781B266CDBF}" name="0.00" dataDxfId="57">
       <calculatedColumnFormula>B6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F500672D-906F-4A08-BA1C-614C6EC84311}" name="FEC_MOV" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{C9BD63C7-6857-4622-A165-831B280B0D54}" name="MES" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{E6778F23-4F38-46A1-8F1F-2F571A10FA32}" name="CATEGORIA" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{B43CA4A3-6100-4273-BA27-063F8D5D0DAB}" name="CONCEPTO" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{7E7F2028-E8A7-4D31-A3A2-AA70A5948836}" name="INGRESO" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{C4FE14AE-0E9A-4178-A80A-29EAE5A59B1D}" name="EGRESO" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{A2B9B41A-EA03-424E-A02A-32D3A30F8411}" name="NOTAS" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{F500672D-906F-4A08-BA1C-614C6EC84311}" name="FEC_MOV" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{C9BD63C7-6857-4622-A165-831B280B0D54}" name="MES" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{E6778F23-4F38-46A1-8F1F-2F571A10FA32}" name="CATEGORIA" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{B43CA4A3-6100-4273-BA27-063F8D5D0DAB}" name="CONCEPTO" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{7E7F2028-E8A7-4D31-A3A2-AA70A5948836}" name="INGRESO" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{C4FE14AE-0E9A-4178-A80A-29EAE5A59B1D}" name="EGRESO" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{A2B9B41A-EA03-424E-A02A-32D3A30F8411}" name="NOTAS" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8A66DCD-DDF7-4D22-BBDB-7A47EBF06157}" name="Inventario" displayName="Inventario" ref="B6:I38" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8A66DCD-DDF7-4D22-BBDB-7A47EBF06157}" name="Inventario" displayName="Inventario" ref="B6:I38" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="B6:I38" xr:uid="{D8A66DCD-DDF7-4D22-BBDB-7A47EBF06157}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CD264D47-6D4E-407C-B48E-42574E4C32EB}" name="0.00" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{CD264D47-6D4E-407C-B48E-42574E4C32EB}" name="0.00" dataDxfId="39">
       <calculatedColumnFormula>B6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A7191D60-130B-4135-805A-4190B408A0BC}" name="FEC_MOV" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{0D68EE5E-281E-4D19-B303-F1642ACD6CC2}" name="MES" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{DF737D5C-072F-4805-A1D2-0592EBF50E2A}" name="CATEGORIA" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{7049B6C4-B9FC-434E-AF6F-3C25991C0CA7}" name="CONCEPTO" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{249AD525-9FAF-4D08-95EF-7E4848924BEB}" name="AGUA" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{F81138EF-1B05-47CB-82A3-F7FAB499BF47}" name="SAL" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{19D9D7E1-5923-4301-984D-CE8DBAA8D2FD}" name="NOTAS" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{A7191D60-130B-4135-805A-4190B408A0BC}" name="FEC_MOV" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{0D68EE5E-281E-4D19-B303-F1642ACD6CC2}" name="MES" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{DF737D5C-072F-4805-A1D2-0592EBF50E2A}" name="CATEGORIA" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{7049B6C4-B9FC-434E-AF6F-3C25991C0CA7}" name="CONCEPTO" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{249AD525-9FAF-4D08-95EF-7E4848924BEB}" name="AGUA" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{F81138EF-1B05-47CB-82A3-F7FAB499BF47}" name="SAL" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{19D9D7E1-5923-4301-984D-CE8DBAA8D2FD}" name="NOTAS" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4DD1FBD-9890-4382-B08F-0507D4778EAA}" name="DIAR_245" displayName="DIAR_245" ref="B6:I197" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4DD1FBD-9890-4382-B08F-0507D4778EAA}" name="DIAR_245" displayName="DIAR_245" ref="B6:I197" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="B6:I197" xr:uid="{2552EAA0-EF9A-4603-B14E-7BA1347E58BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I197">
     <sortCondition ref="C7:C197"/>
@@ -16854,23 +16713,23 @@
     <sortCondition ref="F7:F197"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DAAFE782-C035-4940-83A1-D3C61C04C521}" name="0.00" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{DAAFE782-C035-4940-83A1-D3C61C04C521}" name="0.00" dataDxfId="28">
       <calculatedColumnFormula>B6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E7A78958-F746-4063-8B52-06F870EE81AF}" name="FEC_MOV" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{79E1BDCD-99F6-4FE7-A96D-704D2898F6EC}" name="MES" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{9EB63500-5ACF-4EA0-B15F-CAE5740967D0}" name="CATEGORIA" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{5339BA78-1EAB-439D-924C-5A0ABDBE1DEE}" name="CONCEPTO" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{2BD202F9-48E0-487A-ABC2-2F72E95F64F5}" name="INGRESO" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{89ED8DBD-22EB-44D6-B771-BBAC45B8B393}" name="EGRESO" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{E5F5B623-846A-4D0C-94CE-54EE1DB6125A}" name="NOTAS" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{E7A78958-F746-4063-8B52-06F870EE81AF}" name="FEC_MOV" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{79E1BDCD-99F6-4FE7-A96D-704D2898F6EC}" name="MES" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{9EB63500-5ACF-4EA0-B15F-CAE5740967D0}" name="CATEGORIA" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{5339BA78-1EAB-439D-924C-5A0ABDBE1DEE}" name="CONCEPTO" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{2BD202F9-48E0-487A-ABC2-2F72E95F64F5}" name="INGRESO" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{89ED8DBD-22EB-44D6-B771-BBAC45B8B393}" name="EGRESO" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{E5F5B623-846A-4D0C-94CE-54EE1DB6125A}" name="NOTAS" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D407D9E-AAA7-4128-8391-85B1D744ED70}" name="Flujo_SJTC2" displayName="Flujo_SJTC2" ref="B6:J40" totalsRowShown="0" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D407D9E-AAA7-4128-8391-85B1D744ED70}" name="Flujo_SJTC2" displayName="Flujo_SJTC2" ref="B6:J40" totalsRowShown="0" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="B6:J40" xr:uid="{2552EAA0-EF9A-4603-B14E-7BA1347E58BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:J39">
     <sortCondition ref="C7:C39"/>
@@ -16878,19 +16737,19 @@
     <sortCondition ref="F7:F39"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{282B77B7-537B-4E4D-953F-00DF3E3914A8}" name="0.00" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{282B77B7-537B-4E4D-953F-00DF3E3914A8}" name="0.00" dataDxfId="15">
       <calculatedColumnFormula>B6+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F5E81374-7B57-4DD6-9E6E-67A08F74B5A4}" name="FEC_MOV" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{92A20AD5-EC3F-4205-8DE5-5D8157C7173B}" name="MES" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{930C55AB-6A0F-4DCA-9117-07D80871CC38}" name="CATEGORIA" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{2EE3C807-4760-4951-AF09-F45B17B31C3D}" name="CONCEPTO" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{AC7EA1BC-AB9E-4707-BEDE-C31877F21724}" name="INGRESO" dataDxfId="46">
+    <tableColumn id="2" xr3:uid="{F5E81374-7B57-4DD6-9E6E-67A08F74B5A4}" name="FEC_MOV" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{92A20AD5-EC3F-4205-8DE5-5D8157C7173B}" name="MES" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{930C55AB-6A0F-4DCA-9117-07D80871CC38}" name="CATEGORIA" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{2EE3C807-4760-4951-AF09-F45B17B31C3D}" name="CONCEPTO" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{AC7EA1BC-AB9E-4707-BEDE-C31877F21724}" name="INGRESO" dataDxfId="10">
       <calculatedColumnFormula>5760+500+208.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CDEA6259-90A6-42B7-A7CD-4A6B3A58C95E}" name="EGRESO" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{76A4C6EE-3F76-44A7-8FA9-1CBFE768B4E7}" name="NOTAS" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{0DE1F7F9-5765-4F54-BDF0-AF43B11FCFAF}" name="T" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{CDEA6259-90A6-42B7-A7CD-4A6B3A58C95E}" name="EGRESO" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{76A4C6EE-3F76-44A7-8FA9-1CBFE768B4E7}" name="NOTAS" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{0DE1F7F9-5765-4F54-BDF0-AF43B11FCFAF}" name="T" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23316,11 +23175,11 @@
       <c r="J7" s="99">
         <v>1</v>
       </c>
-      <c r="K7" s="220" t="s">
+      <c r="K7" s="223" t="s">
         <v>558</v>
       </c>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
       <c r="AA7" s="49" t="s">
         <v>25</v>
       </c>
@@ -34199,7 +34058,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34255,7 +34114,7 @@
       </c>
       <c r="L2" s="1">
         <f>SUMIF(DIAR_247[[#All],[CATEGORIA]],"1_USO_AP",DIAR_247[[#All],[EGRESO]])+SUMIF(DIAR_247[[#All],[CATEGORIA]],"0_APORTACION",DIAR_247[[#All],[INGRESO]])</f>
-        <v>4459</v>
+        <v>4466.43</v>
       </c>
       <c r="M2" s="1"/>
       <c r="AA2" s="49" t="s">
@@ -34322,7 +34181,7 @@
     <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="218">
         <f>MAX(DIAR_247[[#All],[FEC_MOV]])</f>
-        <v>45674</v>
+        <v>45705</v>
       </c>
       <c r="C5" s="219"/>
       <c r="D5" s="219"/>
@@ -34332,7 +34191,7 @@
       </c>
       <c r="G5" s="1">
         <f>SUBTOTAL(9,$G$7:$G$3538)</f>
-        <v>4459</v>
+        <v>4466.43</v>
       </c>
       <c r="H5" s="1">
         <f>SUBTOTAL(9,$H$7:$H$3538)</f>
@@ -34340,7 +34199,7 @@
       </c>
       <c r="I5" s="122">
         <f>G5+H5</f>
-        <v>4459</v>
+        <v>4466.43</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="123" t="s">
@@ -34348,7 +34207,7 @@
       </c>
       <c r="L5" s="122">
         <f>SUM(L2:L4)</f>
-        <v>4459</v>
+        <v>4466.43</v>
       </c>
       <c r="M5" s="17"/>
       <c r="AA5" s="49" t="s">
@@ -34444,13 +34303,25 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="C9" s="51">
+        <v>45705</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="G9" s="54">
+        <v>7.43</v>
+      </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="54" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="50">
@@ -38946,7 +38817,7 @@
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="212">
         <f>MAX(DIARIO_2025!$C$7:$C$435)</f>
-        <v>45674</v>
+        <v>45705</v>
       </c>
       <c r="B3" s="212"/>
       <c r="C3" s="212"/>
@@ -38970,7 +38841,7 @@
       </c>
       <c r="C5" s="13">
         <f>GETPIVOTDATA("INGRESOS",$A$6)+GETPIVOTDATA("EGRESOS",$A$6)</f>
-        <v>4459</v>
+        <v>4466.43</v>
       </c>
       <c r="F5" s="127"/>
     </row>
@@ -38998,15 +38869,22 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>240</v>
+        <v>725</v>
       </c>
       <c r="B8" s="13">
-        <v>4459</v>
+        <v>7.43</v>
       </c>
       <c r="C8" s="13"/>
       <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="13">
+        <v>4466.43</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="81"/>
       <c r="F9" s="127"/>
     </row>
@@ -39042,7 +38920,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="213" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B20" s="213"/>
       <c r="C20" s="213"/>
@@ -39063,10 +38941,10 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B23" s="13">
-        <v>0</v>
+        <v>7.43</v>
       </c>
       <c r="F23" s="127"/>
     </row>
@@ -39085,7 +38963,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="126" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B26" s="81"/>
       <c r="C26" s="13">
@@ -39117,7 +38995,7 @@
       </c>
       <c r="B30" s="111">
         <f>SUM(B22:B29)</f>
-        <v>4459</v>
+        <v>4466.43</v>
       </c>
       <c r="C30" s="111">
         <f>SUM(C22:C29)</f>
@@ -39132,7 +39010,7 @@
       <c r="B31" s="81"/>
       <c r="C31" s="125">
         <f>B30+C30</f>
-        <v>4459</v>
+        <v>4466.43</v>
       </c>
       <c r="F31" s="127"/>
     </row>
@@ -39209,42 +39087,42 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="220" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
       <c r="F2" s="202" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="202"/>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="223" t="s">
         <v>379</v>
       </c>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="M2" s="220" t="s">
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="M2" s="223" t="s">
         <v>379</v>
       </c>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="S2" s="220" t="s">
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="S2" s="223" t="s">
         <v>379</v>
       </c>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="81"/>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="221" t="s">
         <v>639</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
       <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
@@ -39252,25 +39130,25 @@
         <f>SUMIF(DIAR_24[[#All],[CATEGORIA]],"1_USO_AP",DIAR_24[[#All],[EGRESO]])+SUMIF(DIAR_24[[#All],[CATEGORIA]],"0_APORTACION",DIAR_24[[#All],[INGRESO]])</f>
         <v>4459</v>
       </c>
-      <c r="I3" s="227" t="s">
+      <c r="I3" s="224" t="s">
         <v>380</v>
       </c>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="M3" s="221" t="s">
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="M3" s="225" t="s">
         <v>658</v>
       </c>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="S3" s="221" t="s">
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="S3" s="225" t="s">
         <v>658</v>
       </c>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="222">
@@ -40029,10 +39907,10 @@
         <v>678</v>
       </c>
       <c r="N24" s="108"/>
-      <c r="O24" s="223">
+      <c r="O24" s="226">
         <v>45629</v>
       </c>
-      <c r="P24" s="224"/>
+      <c r="P24" s="227"/>
       <c r="Q24" s="174">
         <v>-890</v>
       </c>
@@ -40055,10 +39933,10 @@
         <v>678</v>
       </c>
       <c r="N25" s="108"/>
-      <c r="O25" s="223">
+      <c r="O25" s="226">
         <v>45659</v>
       </c>
-      <c r="P25" s="224"/>
+      <c r="P25" s="227"/>
       <c r="Q25" s="174"/>
       <c r="S25" s="175"/>
       <c r="T25" s="176"/>
@@ -40192,13 +40070,6 @@
     <sortCondition ref="F7:F13"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I3:K3"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="S4:W4"/>
@@ -40207,6 +40078,13 @@
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="2833" scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
